--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/17/correct_predictions_17.xlsx
@@ -467,21 +467,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -497,21 +497,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/17/correct_predictions_17.xlsx
@@ -467,21 +467,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -497,21 +497,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
